--- a/biology/Médecine/Jean-Charles_Rielle/Jean-Charles_Rielle.xlsx
+++ b/biology/Médecine/Jean-Charles_Rielle/Jean-Charles_Rielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jean-Charles Rielle, né le 13 août 1952 à Lausanne[3], originaire de Sion et Grimisuat (Valais), est un médecin et homme politique suisse, député au Grand Conseil de la République et canton de Genève (législature 2013-2018), conseiller national (2007-2011), président du Conseil municipal de la Ville de Genève (2012-2013).
-Il a également été médecin au Service de santé de l'enfance et de la jeunesse[4] (1989-mars 2017), juge assesseur-médecin au Tribunal de la jeunesse (2000-2010)[5], médecin responsable du CIPRET-Genève (1991-2012), centre de prévention du tabagisme[6] et membre de la Commission fédérale de prévention du tabagisme (1998-2011).
+Jean-Charles Rielle, né le 13 août 1952 à Lausanne, originaire de Sion et Grimisuat (Valais), est un médecin et homme politique suisse, député au Grand Conseil de la République et canton de Genève (législature 2013-2018), conseiller national (2007-2011), président du Conseil municipal de la Ville de Genève (2012-2013).
+Il a également été médecin au Service de santé de l'enfance et de la jeunesse (1989-mars 2017), juge assesseur-médecin au Tribunal de la jeunesse (2000-2010), médecin responsable du CIPRET-Genève (1991-2012), centre de prévention du tabagisme et membre de la Commission fédérale de prévention du tabagisme (1998-2011).
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Charles Rielle grandit à Sion et s'installe à Genève en 1972, à l'âge de 20 ans. Il obtient le certificat fédéral de maturité en 1974 puis entame des études de médecine à l'Université de Genève. Il fait deux années de recherche à l'Institut d'histologie-embryologie, suivi de deux ans de dermatologie puis s'intéresse à la santé publique.
 Il obtient son diplôme fédéral de médecin à la faculté de médecine de l'Université de Genève en mars 1984. Il obtient un diplôme de formation continue en santé publique — Master of Advanced Studies (MAS) en santé publique — de la Faculté de Médecine de l'Université de Genève en 1998 et reçoit en 1994 la médaille et le certificat Tabac ou Santé de l'Organisation mondiale de la santé (OMS).
-Il est marié depuis 1992 à Laurence Fehlmann Rielle, conseillère nationale depuis 2015[7], et a une fille, Natacha Rielle Pegatoquet, directrice du Cycle d'orientation de Montbrillant[8].
-Ancien gros fumeur, Jean-Charles Rielle est connu pour son action à la tête de CIPRET-Genève, le centre de prévention du tabagisme. Il est aussi un des acteurs clé, avec Pascal Diethelm, de l'affaire Rylander[9], du nom d'un chercheur travaillant à l'Université de Genève tout en travaillant avec Philip Morris International.
+Il est marié depuis 1992 à Laurence Fehlmann Rielle, conseillère nationale depuis 2015, et a une fille, Natacha Rielle Pegatoquet, directrice du Cycle d'orientation de Montbrillant.
+Ancien gros fumeur, Jean-Charles Rielle est connu pour son action à la tête de CIPRET-Genève, le centre de prévention du tabagisme. Il est aussi un des acteurs clé, avec Pascal Diethelm, de l'affaire Rylander, du nom d'un chercheur travaillant à l'Université de Genève tout en travaillant avec Philip Morris International.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Mandats électifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre du Parti socialiste depuis 1989, il est élu dès 1995. Il obtient dès lors les mandats suivants :
 1995-1999 : conseiller municipal de la ville de Genève, président de la commission des naturalisations (1995-1996), membre (1995-1999) et président (1996-1997) de la commission des sports et de la sécurité, membre de la commission de l'informatique et de la communication (1995-1999), de la commission des finances (1997-1999) et de la commission des naturalisations (1995-1996) ;
@@ -561,7 +577,7 @@
 2011-2015 : conseiller municipal de la ville de Genève, président du Conseil municipal (2012-2013), président de la commission du règlement et membre de la commission des sports (2012-2013), premier vice-président du Conseil municipal (2011-2012), président de la commission des sports et membre de la commission des pétitions (2011-2012).
 2013-2018 : député au Grand Conseil, vice-président de la commission de l'enseignement supérieur (mars 2017-mai 2018), président de la commission des affaires sociales (2013-janv. 2015), membre des commissions affaires sociales, santé, enseignement, éducation, culture et sport - enseignement supérieur - CEP 2252 - grâce (titulaire 2013-janvier 2015 et 2016-mars 2017)
 2018-2023 : réélu député au Grand Conseil, président de la commission de l'enseignement supérieur (juin 2018-mai 2019), membre des commissions contrôle de gestion, travaux, santé, enseignement, éducation, culture et sport - enseignement supérieur - grâce (titulaire juin 2019 décembre 2019)
-Le 12 décembre 2019, il démissionne du parti socialiste genevois, en dénonçant « le clientélisme d'un clan qui a pris les commandes du parti ». Il poursuit son mandat de député 2018-2023 comme indépendant, tout en demandant immédiatement son affiliation directe au parti socialiste suisse (affiliation directe prévue par les statuts)[10]. Le 23 mars 2020, la demande d’affiliation directe en tant que membre du parti socialiste suisse PSS est acceptée.
+Le 12 décembre 2019, il démissionne du parti socialiste genevois, en dénonçant « le clientélisme d'un clan qui a pris les commandes du parti ». Il poursuit son mandat de député 2018-2023 comme indépendant, tout en demandant immédiatement son affiliation directe au parti socialiste suisse (affiliation directe prévue par les statuts). Le 23 mars 2020, la demande d’affiliation directe en tant que membre du parti socialiste suisse PSS est acceptée.
 </t>
         </is>
       </c>
